--- a/nba-over-under-2022-2023/picks.xlsx
+++ b/nba-over-under-2022-2023/picks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chester/Desktop/ismayc.github.io/nba-over-under-2022-2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chester/Desktop/ismayc.github.io/nba-over-under-2022-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{89A122E9-B463-004C-94AF-E114000EB531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4BF85D07-E4E7-3E43-9365-FC259F0C66BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2240" windowWidth="12100" windowHeight="16680" xr2:uid="{C9BABCDB-CBFD-8A40-A903-BB9D75C68790}"/>
+    <workbookView xWindow="1440" yWindow="2240" windowWidth="12100" windowHeight="16680" activeTab="2" xr2:uid="{C9BABCDB-CBFD-8A40-A903-BB9D75C68790}"/>
   </bookViews>
   <sheets>
     <sheet name="picks" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -291,9 +289,6 @@
     <t>OKC</t>
   </si>
   <si>
-    <t>PHO</t>
-  </si>
-  <si>
     <t>POR</t>
   </si>
   <si>
@@ -307,6 +302,9 @@
   </si>
   <si>
     <t>Andy</t>
+  </si>
+  <si>
+    <t>PHX</t>
   </si>
 </sst>
 </file>
@@ -668,7 +666,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A42A21-1461-8645-BA2E-931098BDDD56}">
   <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -710,7 +708,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -836,7 +834,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -962,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -1088,7 +1086,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -1214,7 +1212,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>9</v>
@@ -1340,7 +1338,7 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48">
         <v>15</v>
@@ -1466,7 +1464,7 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1592,7 +1590,7 @@
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C66">
         <v>7</v>
@@ -1718,7 +1716,7 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75">
         <v>8</v>
@@ -1844,7 +1842,7 @@
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84">
         <v>14</v>
@@ -1970,7 +1968,7 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93">
         <v>10</v>
@@ -2096,7 +2094,7 @@
         <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C102">
         <v>8</v>
@@ -2222,7 +2220,7 @@
         <v>28</v>
       </c>
       <c r="B111" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C111">
         <v>11</v>
@@ -2348,7 +2346,7 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C120">
         <v>10</v>
@@ -2474,7 +2472,7 @@
         <v>37</v>
       </c>
       <c r="B129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C129">
         <v>7</v>
@@ -2600,7 +2598,7 @@
         <v>34</v>
       </c>
       <c r="B138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C138">
         <v>15</v>
@@ -2726,7 +2724,7 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C147">
         <v>13</v>
@@ -2852,7 +2850,7 @@
         <v>31</v>
       </c>
       <c r="B156" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C156">
         <v>13</v>
@@ -2978,7 +2976,7 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C165">
         <v>10</v>
@@ -3104,7 +3102,7 @@
         <v>25</v>
       </c>
       <c r="B174" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C174">
         <v>12</v>
@@ -3230,7 +3228,7 @@
         <v>29</v>
       </c>
       <c r="B183" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C183">
         <v>9</v>
@@ -3356,7 +3354,7 @@
         <v>24</v>
       </c>
       <c r="B192" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C192">
         <v>12</v>
@@ -3482,7 +3480,7 @@
         <v>41</v>
       </c>
       <c r="B201" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C201">
         <v>9</v>
@@ -3608,7 +3606,7 @@
         <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C210">
         <v>6</v>
@@ -3734,7 +3732,7 @@
         <v>17</v>
       </c>
       <c r="B219" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C219">
         <v>11</v>
@@ -3860,7 +3858,7 @@
         <v>20</v>
       </c>
       <c r="B228" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C228">
         <v>13</v>
@@ -3986,7 +3984,7 @@
         <v>54</v>
       </c>
       <c r="B237" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C237">
         <v>14</v>
@@ -4112,7 +4110,7 @@
         <v>22</v>
       </c>
       <c r="B246" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C246">
         <v>15</v>
@@ -4238,7 +4236,7 @@
         <v>26</v>
       </c>
       <c r="B255" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C255">
         <v>14</v>
@@ -4364,7 +4362,7 @@
         <v>30</v>
       </c>
       <c r="B264" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C264">
         <v>8</v>
@@ -4861,8 +4859,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2645E3-9323-794D-9317-15824D639067}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5245,7 +5243,7 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -5259,7 +5257,7 @@
         <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -5273,7 +5271,7 @@
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5287,7 +5285,7 @@
         <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5301,7 +5299,7 @@
         <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
